--- a/2018_MudSeasonChallenge.xlsx
+++ b/2018_MudSeasonChallenge.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>DOW</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>10 Days to go</t>
+  </si>
+  <si>
+    <t>Day count</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[Green]0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +106,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,12 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,23 +453,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -488,20 +501,23 @@
       <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,24 +551,27 @@
         <f>I2-H2</f>
         <v>98</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <f>IF(I2&gt;=5000,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <f>IF(I2&gt;=10000,1,0)</f>
         <v>1</v>
-      </c>
-      <c r="M2">
-        <f>25-K2</f>
-        <v>24</v>
       </c>
       <c r="N2">
         <f>25-L2</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>25-M2</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,24 +605,27 @@
         <f t="shared" ref="J3:J33" si="1">I3-H3</f>
         <v>332</v>
       </c>
-      <c r="K3">
-        <f>IF(I3&gt;=5000,1,0) + K2</f>
+      <c r="K3" s="5">
         <v>2</v>
       </c>
       <c r="L3">
-        <f>IF(I3&gt;=10000,1,0)+L2</f>
+        <f>IF(I3&gt;=5000,1,0) + L2</f>
         <v>2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M33" si="2">IF(I3&gt;=5000,25-K3,M2)</f>
+        <f>IF(I3&gt;=10000,1,0)+M2</f>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N33" si="2">IF(I3&gt;=5000,25-L3,N2)</f>
         <v>23</v>
       </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N33" si="3">IF(I3&gt;=10000,25-L3,N2)</f>
+      <c r="O3">
+        <f t="shared" ref="O3:O33" si="3">IF(I3&gt;=10000,25-M3,O2)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -637,24 +659,27 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K4">
-        <f>IF(I4&gt;=5000,1,0) + K3</f>
+      <c r="K4" s="5">
         <v>3</v>
       </c>
       <c r="L4">
-        <f>IF(I4&gt;=10000,1,0)+L3</f>
+        <f>IF(I4&gt;=5000,1,0) + L3</f>
         <v>3</v>
       </c>
       <c r="M4">
+        <f>IF(I4&gt;=10000,1,0)+M3</f>
+        <v>3</v>
+      </c>
+      <c r="N4">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -688,24 +713,27 @@
         <f t="shared" si="1"/>
         <v>165</v>
       </c>
-      <c r="K5">
-        <f>IF(I5&gt;=5000,1,0) + K4</f>
+      <c r="K5" s="5">
         <v>4</v>
       </c>
       <c r="L5">
-        <f>IF(I5&gt;=10000,1,0)+L4</f>
+        <f>IF(I5&gt;=5000,1,0) + L4</f>
         <v>4</v>
       </c>
       <c r="M5">
+        <f>IF(I5&gt;=10000,1,0)+M4</f>
+        <v>4</v>
+      </c>
+      <c r="N5">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -739,24 +767,27 @@
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:K33" si="4">IF(I6=0,,IF(I6&gt;=5000,1,0) + K5)</f>
+      <c r="K6" s="6">
         <v>5</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L33" si="5">IF(I6=0,,IF(I6&gt;=10000,1,0)+L5)</f>
+        <f>IF(I6=0,,IF(I6&gt;=5000,1,0) + L5)</f>
         <v>5</v>
       </c>
       <c r="M6">
+        <f>IF(I6=0,,IF(I6&gt;=10000,1,0)+M5)</f>
+        <v>5</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -775,36 +806,42 @@
       <c r="F7">
         <v>6000</v>
       </c>
+      <c r="G7">
+        <v>4194</v>
+      </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>6048</v>
+        <v>10242</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
-        <v>-3952</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="4"/>
+        <v>242</v>
+      </c>
+      <c r="K7" s="6">
         <v>6</v>
       </c>
       <c r="L7">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f>IF(I7=0,,IF(I7&gt;=5000,1,0) + L6)</f>
+        <v>6</v>
       </c>
       <c r="M7">
+        <f>IF(I7=0,,IF(I7&gt;=10000,1,0)+M6)</f>
+        <v>6</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -832,24 +869,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="K8" s="7"/>
       <c r="L8">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>IF(I8=0,L7,IF(I8&gt;=5000,1,0) + L7)</f>
+        <v>6</v>
       </c>
       <c r="M8">
+        <f>IF(I8=0,M7,IF(I8&gt;=10000,1,0)+M7)</f>
+        <v>6</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -862,39 +900,48 @@
       <c r="D9">
         <v>4000</v>
       </c>
+      <c r="E9">
+        <v>5037</v>
+      </c>
       <c r="F9">
         <v>6000</v>
       </c>
+      <c r="G9">
+        <v>5140</v>
+      </c>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10177</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
-        <v>-10000</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>177</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7</v>
       </c>
       <c r="L9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" ref="L9:L33" si="4">IF(I9=0,L8,IF(I9&gt;=5000,1,0) + L8)</f>
+        <v>7</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" ref="M9:M33" si="5">IF(I9=0,M8,IF(I9&gt;=10000,1,0)+M8)</f>
+        <v>7</v>
       </c>
       <c r="N9">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -907,6 +954,9 @@
       <c r="D10">
         <v>4000</v>
       </c>
+      <c r="E10">
+        <v>5035</v>
+      </c>
       <c r="F10">
         <v>6000</v>
       </c>
@@ -916,30 +966,33 @@
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5035</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
-        <v>-10000</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4965</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8</v>
       </c>
       <c r="L10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M10">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N10">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -967,24 +1020,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K11" s="7">
+        <v>9</v>
       </c>
       <c r="L11">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M11">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N11">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1012,24 +1068,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K12" s="7">
+        <v>10</v>
       </c>
       <c r="L12">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N12">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1057,24 +1116,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K13" s="7">
+        <v>11</v>
       </c>
       <c r="L13">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M13">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N13">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1102,24 +1164,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="K14" s="7"/>
       <c r="L14">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M14">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N14">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1147,24 +1210,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="K15" s="7"/>
       <c r="L15">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M15">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N15">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1192,24 +1256,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K16" s="7">
+        <v>12</v>
       </c>
       <c r="L16">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1237,24 +1304,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K17" s="7">
+        <v>13</v>
       </c>
       <c r="L17">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M17">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1282,24 +1352,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K18" s="7">
+        <v>14</v>
       </c>
       <c r="L18">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M18">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1327,24 +1400,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K19" s="7">
+        <v>15</v>
       </c>
       <c r="L19">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M19">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1372,24 +1448,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K20" s="7">
+        <v>16</v>
       </c>
       <c r="L20">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M20">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1417,24 +1496,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K21" s="7">
+        <v>17</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M21">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1462,24 +1544,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="K22" s="7"/>
       <c r="L22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M22">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1507,24 +1590,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K23" s="7">
+        <v>18</v>
       </c>
       <c r="L23">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M23">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1552,24 +1638,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K24" s="7">
+        <v>19</v>
       </c>
       <c r="L24">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M24">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1597,24 +1686,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K25" s="7">
+        <v>20</v>
       </c>
       <c r="L25">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M25">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1642,24 +1734,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K26" s="7">
+        <v>21</v>
       </c>
       <c r="L26">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M26">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N26">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1687,24 +1782,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K27" s="7">
+        <v>22</v>
       </c>
       <c r="L27">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M27">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N27">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -1732,24 +1830,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="K28" s="7"/>
       <c r="L28">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M28">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N28">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -1777,24 +1876,25 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="K29" s="7"/>
       <c r="L29">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N29">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1822,24 +1922,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K30" s="7">
+        <v>23</v>
       </c>
       <c r="L30">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N30">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1867,24 +1970,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K31" s="7">
+        <v>24</v>
       </c>
       <c r="L31">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N31">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1912,24 +2018,27 @@
         <f t="shared" si="1"/>
         <v>-10000</v>
       </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K32" s="7">
+        <v>25</v>
       </c>
       <c r="L32">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N32">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <v>43093</v>
       </c>
@@ -1951,60 +2060,73 @@
         <f t="shared" si="1"/>
         <v>-9000</v>
       </c>
-      <c r="K33">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="K33" s="7">
+        <v>26</v>
       </c>
       <c r="L33">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="N33">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
       <c r="H35">
         <f>SUM(H2:H34)</f>
         <v>259000</v>
       </c>
       <c r="I35">
         <f>SUM(I2:I34)</f>
-        <v>56841</v>
+        <v>76247</v>
       </c>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.25">
       <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
